--- a/data/trans_camb/P15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,33</t>
+          <t>-3,08; 4,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,28</t>
+          <t>-5,49; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 0,97</t>
+          <t>-5,66; 0,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,73</t>
+          <t>-3,46; 4,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,21</t>
+          <t>-3,02; 4,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,63</t>
+          <t>-3,52; 2,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,28</t>
+          <t>-2,45; 3,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,6</t>
+          <t>-3,71; 1,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,55</t>
+          <t>-3,71; 0,69</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 77,11</t>
+          <t>-34,73; 75,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 23,06</t>
+          <t>-62,05; 20,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,76; 20,71</t>
+          <t>-63,27; 10,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 152,79</t>
+          <t>-51,59; 124,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 128,78</t>
+          <t>-44,52; 130,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,32; 73,99</t>
+          <t>-44,59; 71,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 64,48</t>
+          <t>-33,46; 58,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 31,06</t>
+          <t>-46,92; 26,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 11,3</t>
+          <t>-47,78; 13,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 4,47</t>
+          <t>-3,58; 4,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,81</t>
+          <t>-6,12; 0,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 1,64</t>
+          <t>-5,46; 2,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 8,58</t>
+          <t>1,44; 8,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,96</t>
+          <t>-0,46; 6,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,62</t>
+          <t>0,17; 5,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,46</t>
+          <t>0,14; 5,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,46</t>
+          <t>-2,13; 2,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,75</t>
+          <t>-1,64; 3,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 89,67</t>
+          <t>-36,71; 84,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 17,6</t>
+          <t>-66,34; 20,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,08; 34,89</t>
+          <t>-58,31; 52,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 440,52</t>
+          <t>26,71; 517,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 310,56</t>
+          <t>-18,52; 341,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 338,87</t>
+          <t>-1,38; 287,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 149,86</t>
+          <t>2,31; 135,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 61,99</t>
+          <t>-35,2; 70,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 70,37</t>
+          <t>-25,33; 76,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,25</t>
+          <t>-2,75; 3,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 0,58</t>
+          <t>-5,76; 0,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 0,17</t>
+          <t>-8,48; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,87</t>
+          <t>-0,99; 6,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,19</t>
+          <t>-1,52; 7,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 8,21</t>
+          <t>0,07; 8,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,67</t>
+          <t>-1,41; 4,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,04</t>
+          <t>-4,22; 1,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1,27</t>
+          <t>-6,12; 1,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 61,43</t>
+          <t>-26,27; 52,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,41; 12,1</t>
+          <t>-55,27; 8,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,98; 4,55</t>
+          <t>-80,76; 6,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 750,34</t>
+          <t>-29,28; 572,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 794,54</t>
+          <t>-37,64; 682,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 594,44</t>
+          <t>-17,23; 606,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 61,27</t>
+          <t>-16,02; 68,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 17,71</t>
+          <t>-47,66; 22,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,07; 18,12</t>
+          <t>-72,03; 22,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,68</t>
+          <t>-0,66; 3,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,14</t>
+          <t>-3,74; 0,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,62</t>
+          <t>-2,47; 2,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,51</t>
+          <t>-2,43; 2,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,79</t>
+          <t>-3,68; 0,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,54</t>
+          <t>-4,57; 1,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,62</t>
+          <t>-0,62; 2,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; -0,06</t>
+          <t>-3,12; -0,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,86</t>
+          <t>-2,72; 0,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 62,52</t>
+          <t>-8,78; 62,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,35; 2,67</t>
+          <t>-46,93; 2,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 28,0</t>
+          <t>-32,89; 35,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 50,85</t>
+          <t>-33,19; 56,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 18,96</t>
+          <t>-50,8; 17,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 29,39</t>
+          <t>-62,06; 29,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 46,82</t>
+          <t>-8,33; 45,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,43; -0,31</t>
+          <t>-42,35; -2,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 12,95</t>
+          <t>-38,83; 14,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 5,41</t>
+          <t>-1,68; 5,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,75</t>
+          <t>-2,15; 3,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,93</t>
+          <t>-1,67; 6,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,68</t>
+          <t>-1,6; 4,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,54</t>
+          <t>-3,87; 1,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,49</t>
+          <t>-3,22; 2,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,61</t>
+          <t>-0,91; 3,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,84</t>
+          <t>-2,4; 1,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,17</t>
+          <t>-1,63; 2,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 133,51</t>
+          <t>-21,12; 138,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 89,94</t>
+          <t>-29,12; 98,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 150,42</t>
+          <t>-22,34; 151,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 72,36</t>
+          <t>-20,42; 81,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 31,51</t>
+          <t>-45,5; 33,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 50,7</t>
+          <t>-39,39; 47,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 73,08</t>
+          <t>-12,33; 72,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 37,05</t>
+          <t>-31,18; 34,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 61,74</t>
+          <t>-22,22; 57,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,8</t>
+          <t>-4,43; 5,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 5,68</t>
+          <t>-4,49; 5,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 3,1</t>
+          <t>-9,53; 1,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,14</t>
+          <t>1,01; 5,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,44</t>
+          <t>-1,26; 2,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,13</t>
+          <t>-0,75; 3,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,45</t>
+          <t>0,64; 4,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,52</t>
+          <t>-1,13; 2,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,3</t>
+          <t>-1,84; 2,32</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 62,53</t>
+          <t>-37,75; 72,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 77,21</t>
+          <t>-37,86; 81,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-84,06; 55,65</t>
+          <t>-85,63; 20,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,39; 122,98</t>
+          <t>17,02; 124,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 57,75</t>
+          <t>-22,29; 58,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 76,21</t>
+          <t>-14,23; 78,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,66; 87,07</t>
+          <t>9,31; 86,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 49,69</t>
+          <t>-16,86; 47,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 45,86</t>
+          <t>-27,73; 44,44</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,28</t>
+          <t>-0,19; 2,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,39</t>
+          <t>-2,78; -0,34</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,32</t>
+          <t>-3,2; -0,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,19</t>
+          <t>0,97; 3,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,34</t>
+          <t>-0,87; 1,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,76</t>
+          <t>-0,78; 1,8</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,4</t>
+          <t>0,69; 2,38</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,17</t>
+          <t>-1,45; 0,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,45</t>
+          <t>-1,41; 0,48</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 33,47</t>
+          <t>-3,3; 35,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,64; -4,88</t>
+          <t>-34,34; -4,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-43,49; -4,74</t>
+          <t>-40,76; -2,24</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>15,93; 69,14</t>
+          <t>16,71; 69,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 28,79</t>
+          <t>-15,86; 27,8</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 38,97</t>
+          <t>-13,55; 37,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,72; 41,01</t>
+          <t>10,52; 41,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 3,11</t>
+          <t>-21,7; 3,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 7,53</t>
+          <t>-21,3; 8,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
